--- a/data/pca/factorExposure/factorExposure_2018-08-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03896579726862055</v>
+        <v>-0.02690590067361521</v>
       </c>
       <c r="C2">
-        <v>0.0390287018347633</v>
+        <v>0.01665307345856111</v>
       </c>
       <c r="D2">
-        <v>-0.01071976349598767</v>
+        <v>-0.02120975499825431</v>
       </c>
       <c r="E2">
-        <v>0.052597684634158</v>
+        <v>0.01519480675293132</v>
       </c>
       <c r="F2">
-        <v>0.1442099371596072</v>
+        <v>0.007166233133253735</v>
       </c>
       <c r="G2">
-        <v>-0.06773206888980339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08077058245178712</v>
+      </c>
+      <c r="H2">
+        <v>0.02901602987358577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1283568853944669</v>
+        <v>-0.0782495539859594</v>
       </c>
       <c r="C3">
-        <v>0.0416469003690079</v>
+        <v>-0.01233172594371573</v>
       </c>
       <c r="D3">
-        <v>0.05459001187458233</v>
+        <v>-0.01940278558741079</v>
       </c>
       <c r="E3">
-        <v>0.1035799722995806</v>
+        <v>0.006532924908995029</v>
       </c>
       <c r="F3">
-        <v>0.3824301054168268</v>
+        <v>-0.04487815527772098</v>
       </c>
       <c r="G3">
-        <v>-0.2330590584715541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.256743858792959</v>
+      </c>
+      <c r="H3">
+        <v>0.07408618776141626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05394797632769401</v>
+        <v>-0.04823722253364966</v>
       </c>
       <c r="C4">
-        <v>-0.0007720702951225073</v>
+        <v>0.003675481627376906</v>
       </c>
       <c r="D4">
-        <v>-0.03637915555295101</v>
+        <v>-0.04167394734174241</v>
       </c>
       <c r="E4">
-        <v>0.06967730750129653</v>
+        <v>-0.01900651046290228</v>
       </c>
       <c r="F4">
-        <v>0.07313299195517954</v>
+        <v>0.04934338437069197</v>
       </c>
       <c r="G4">
-        <v>-0.05715610150893285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0561840165849458</v>
+      </c>
+      <c r="H4">
+        <v>0.03657202699831762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.014373489857744</v>
+        <v>-0.02608658183428248</v>
       </c>
       <c r="C6">
-        <v>0.009216607376011583</v>
+        <v>0.003928068196124511</v>
       </c>
       <c r="D6">
-        <v>0.008233492393736939</v>
+        <v>-0.05171750740337237</v>
       </c>
       <c r="E6">
-        <v>0.02073577371848984</v>
+        <v>-0.00416305912470856</v>
       </c>
       <c r="F6">
-        <v>0.0138452585433791</v>
+        <v>0.03168996577692203</v>
       </c>
       <c r="G6">
-        <v>0.004421780432418853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0187314934426799</v>
+      </c>
+      <c r="H6">
+        <v>0.05350499481590753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02474585899048106</v>
+        <v>-0.02039650507072874</v>
       </c>
       <c r="C7">
-        <v>0.00546531576852083</v>
+        <v>0.003293909891142186</v>
       </c>
       <c r="D7">
-        <v>0.006058001116225794</v>
+        <v>-0.02514202275192212</v>
       </c>
       <c r="E7">
-        <v>0.0401701684714622</v>
+        <v>-0.03572519046249151</v>
       </c>
       <c r="F7">
-        <v>0.0497165098260671</v>
+        <v>0.00924924903980269</v>
       </c>
       <c r="G7">
-        <v>-0.05830317828405144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.034873792391799</v>
+      </c>
+      <c r="H7">
+        <v>0.0261665154751567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0209188582804672</v>
+        <v>-0.006786356417497421</v>
       </c>
       <c r="C8">
-        <v>-0.0008628457832468894</v>
+        <v>-0.002282711516445263</v>
       </c>
       <c r="D8">
-        <v>-0.009401626302496927</v>
+        <v>-0.01053732502585882</v>
       </c>
       <c r="E8">
-        <v>0.07253863391149877</v>
+        <v>-0.01017843790803204</v>
       </c>
       <c r="F8">
-        <v>0.08633755542804449</v>
+        <v>0.01993681451359289</v>
       </c>
       <c r="G8">
-        <v>-0.0747670409670112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05938563675038222</v>
+      </c>
+      <c r="H8">
+        <v>0.01627092787463656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04637521357107794</v>
+        <v>-0.04007602987196796</v>
       </c>
       <c r="C9">
-        <v>-0.008722746374425938</v>
+        <v>-0.0007105931099244518</v>
       </c>
       <c r="D9">
-        <v>-0.02944579243588174</v>
+        <v>-0.0331620126260939</v>
       </c>
       <c r="E9">
-        <v>0.07020082439844932</v>
+        <v>-0.01725942921891406</v>
       </c>
       <c r="F9">
-        <v>0.07002886087889598</v>
+        <v>0.02461801491620374</v>
       </c>
       <c r="G9">
-        <v>-0.05171998907101192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06368231624442879</v>
+      </c>
+      <c r="H9">
+        <v>0.03337898501331373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03195387408750638</v>
+        <v>-0.0995327633562126</v>
       </c>
       <c r="C10">
-        <v>-0.03181537100313165</v>
+        <v>-0.03077060455925675</v>
       </c>
       <c r="D10">
-        <v>-0.02811319399473076</v>
+        <v>0.1528332858466387</v>
       </c>
       <c r="E10">
-        <v>-0.1111813684911164</v>
+        <v>0.008540648450754499</v>
       </c>
       <c r="F10">
-        <v>0.07034479466892563</v>
+        <v>-0.04656511928511451</v>
       </c>
       <c r="G10">
-        <v>0.01136946996446562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02298973093748049</v>
+      </c>
+      <c r="H10">
+        <v>0.0001264053336326264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03613806645640891</v>
+        <v>-0.02124767648431593</v>
       </c>
       <c r="C11">
-        <v>0.01953188872029448</v>
+        <v>-0.008194343799913734</v>
       </c>
       <c r="D11">
-        <v>-0.001069731360545278</v>
+        <v>-0.03683988245630654</v>
       </c>
       <c r="E11">
-        <v>0.03800154240254462</v>
+        <v>0.005054130972246903</v>
       </c>
       <c r="F11">
-        <v>0.03198479814458691</v>
+        <v>0.01100286034320964</v>
       </c>
       <c r="G11">
-        <v>-0.01962441279580112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03429739420253684</v>
+      </c>
+      <c r="H11">
+        <v>0.03227871344364561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04389670483252336</v>
+        <v>-0.029768937751895</v>
       </c>
       <c r="C12">
-        <v>0.0079360146847432</v>
+        <v>-0.006573168875362166</v>
       </c>
       <c r="D12">
-        <v>-0.008811488512854451</v>
+        <v>-0.03797311629016516</v>
       </c>
       <c r="E12">
-        <v>0.04609012124893491</v>
+        <v>-0.006591995254681986</v>
       </c>
       <c r="F12">
-        <v>0.01670240248493753</v>
+        <v>0.01736141797134342</v>
       </c>
       <c r="G12">
-        <v>-0.01415599507065476</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01473002321411754</v>
+      </c>
+      <c r="H12">
+        <v>0.01642883879353314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0240755283869538</v>
+        <v>-0.02752586119002529</v>
       </c>
       <c r="C13">
-        <v>0.03618522632225759</v>
+        <v>0.0131352480396964</v>
       </c>
       <c r="D13">
-        <v>-0.005488752370788677</v>
+        <v>-0.003785341259705498</v>
       </c>
       <c r="E13">
-        <v>0.01891842944094813</v>
+        <v>0.01823439769589455</v>
       </c>
       <c r="F13">
-        <v>0.08884737338305954</v>
+        <v>0.01168869345734674</v>
       </c>
       <c r="G13">
-        <v>-0.04378813314995453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06746956646648118</v>
+      </c>
+      <c r="H13">
+        <v>0.0361367483110604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01251752426617846</v>
+        <v>-0.01621461364872796</v>
       </c>
       <c r="C14">
-        <v>0.005815965613172232</v>
+        <v>0.0007810548466051233</v>
       </c>
       <c r="D14">
-        <v>-0.00545055138277274</v>
+        <v>-0.00532466807711796</v>
       </c>
       <c r="E14">
-        <v>0.03949171890110519</v>
+        <v>-0.00755596094216943</v>
       </c>
       <c r="F14">
-        <v>0.05251402907708484</v>
+        <v>0.01557910871988734</v>
       </c>
       <c r="G14">
-        <v>-0.06604296906249987</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04706076500436255</v>
+      </c>
+      <c r="H14">
+        <v>-0.01197586010632726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02749918170317458</v>
+        <v>-0.02264412593344342</v>
       </c>
       <c r="C16">
-        <v>0.01867598718178966</v>
+        <v>-0.008735718283641595</v>
       </c>
       <c r="D16">
-        <v>-0.003105576551690658</v>
+        <v>-0.03328380679436731</v>
       </c>
       <c r="E16">
-        <v>0.03616187409443045</v>
+        <v>6.968338732641952e-05</v>
       </c>
       <c r="F16">
-        <v>0.03914820319990403</v>
+        <v>0.01575424747964141</v>
       </c>
       <c r="G16">
-        <v>-0.02340806738774954</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03192433851637773</v>
+      </c>
+      <c r="H16">
+        <v>0.02553387112415867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04386571317814006</v>
+        <v>-0.03401489087180939</v>
       </c>
       <c r="C19">
-        <v>0.01952068818873376</v>
+        <v>-0.0001376477420320191</v>
       </c>
       <c r="D19">
-        <v>0.001060392499894177</v>
+        <v>-0.01577460499315415</v>
       </c>
       <c r="E19">
-        <v>0.05239137441594677</v>
+        <v>0.001118432209136898</v>
       </c>
       <c r="F19">
-        <v>0.1016481475746778</v>
+        <v>0.02213388229785591</v>
       </c>
       <c r="G19">
-        <v>-0.05480517718376842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07594027893731307</v>
+      </c>
+      <c r="H19">
+        <v>0.04581455166765445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.002134834884714274</v>
+        <v>-0.01021571723953178</v>
       </c>
       <c r="C20">
-        <v>0.01323800811585391</v>
+        <v>0.006461093359516844</v>
       </c>
       <c r="D20">
-        <v>-0.01373093851286136</v>
+        <v>-0.005006715905168055</v>
       </c>
       <c r="E20">
-        <v>0.04069015898937568</v>
+        <v>6.769419796318445e-05</v>
       </c>
       <c r="F20">
-        <v>0.05239382649032101</v>
+        <v>0.01133759712320413</v>
       </c>
       <c r="G20">
-        <v>-0.07365719679262164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05366403998013507</v>
+      </c>
+      <c r="H20">
+        <v>-0.003809272579919524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0007189555280743897</v>
+        <v>-0.01902221917456974</v>
       </c>
       <c r="C21">
-        <v>0.000858121490309036</v>
+        <v>0.006793120576066963</v>
       </c>
       <c r="D21">
-        <v>0.01289826821059075</v>
+        <v>-0.009361521768180777</v>
       </c>
       <c r="E21">
-        <v>0.0414894012484272</v>
+        <v>-0.01092338917823411</v>
       </c>
       <c r="F21">
-        <v>0.05878722460854514</v>
+        <v>0.006422628701507472</v>
       </c>
       <c r="G21">
-        <v>-0.02956725425475294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.06395350759877602</v>
+      </c>
+      <c r="H21">
+        <v>0.01153913378599466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03349297132239654</v>
+        <v>-0.02073907150748546</v>
       </c>
       <c r="C24">
-        <v>0.01530441810474506</v>
+        <v>-0.003238430009864751</v>
       </c>
       <c r="D24">
-        <v>-0.01046780068595619</v>
+        <v>-0.03332221081996223</v>
       </c>
       <c r="E24">
-        <v>0.02115161054005298</v>
+        <v>-1.247163063422551e-06</v>
       </c>
       <c r="F24">
-        <v>0.03424011122113885</v>
+        <v>0.009774239356451164</v>
       </c>
       <c r="G24">
-        <v>-0.01967035651023356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02784335604403399</v>
+      </c>
+      <c r="H24">
+        <v>0.02996251325008815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03196232727267209</v>
+        <v>-0.02969736713754569</v>
       </c>
       <c r="C25">
-        <v>0.009286996027260221</v>
+        <v>-0.00103199994747859</v>
       </c>
       <c r="D25">
-        <v>-0.001424679539266047</v>
+        <v>-0.03309662325745762</v>
       </c>
       <c r="E25">
-        <v>0.0417109796992492</v>
+        <v>-0.001527969008651768</v>
       </c>
       <c r="F25">
-        <v>0.0325216962550806</v>
+        <v>0.01643138593142821</v>
       </c>
       <c r="G25">
-        <v>-0.004110569416118785</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03258580378400677</v>
+      </c>
+      <c r="H25">
+        <v>0.03214305748661311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02435433089171965</v>
+        <v>-0.02071255082528449</v>
       </c>
       <c r="C26">
-        <v>0.02792426405692655</v>
+        <v>0.01677364912187377</v>
       </c>
       <c r="D26">
-        <v>0.01750227308576591</v>
+        <v>-0.002620165948404845</v>
       </c>
       <c r="E26">
-        <v>0.03615118903499475</v>
+        <v>0.007221322010418602</v>
       </c>
       <c r="F26">
-        <v>0.05588282172396888</v>
+        <v>0.001087351480065431</v>
       </c>
       <c r="G26">
-        <v>-0.03124480601525</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03839500221811456</v>
+      </c>
+      <c r="H26">
+        <v>0.00291892370560782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07045605389770586</v>
+        <v>-0.02715622510037809</v>
       </c>
       <c r="C27">
-        <v>0.008784519775113016</v>
+        <v>-0.0105349325859042</v>
       </c>
       <c r="D27">
-        <v>-0.04917450986822683</v>
+        <v>-0.01794920471113182</v>
       </c>
       <c r="E27">
-        <v>0.05143203210980204</v>
+        <v>-0.004631786773121072</v>
       </c>
       <c r="F27">
-        <v>0.04950434022724353</v>
+        <v>0.02122824577520662</v>
       </c>
       <c r="G27">
-        <v>-0.04824473640487342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.0262571411265828</v>
+      </c>
+      <c r="H27">
+        <v>-4.440170060116992e-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05035487898016858</v>
+        <v>-0.1493708650655566</v>
       </c>
       <c r="C28">
-        <v>-0.04719600949199185</v>
+        <v>-0.03285488356768338</v>
       </c>
       <c r="D28">
-        <v>-0.05091623741624845</v>
+        <v>0.2251453365758273</v>
       </c>
       <c r="E28">
-        <v>-0.1634765001334976</v>
+        <v>0.005688240201351242</v>
       </c>
       <c r="F28">
-        <v>0.0905830487897567</v>
+        <v>-0.05272117018404298</v>
       </c>
       <c r="G28">
-        <v>-0.01436565811248423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.00936181501329778</v>
+      </c>
+      <c r="H28">
+        <v>-0.01656219954466934</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02150931452977984</v>
+        <v>-0.02109411154871001</v>
       </c>
       <c r="C29">
-        <v>-0.001090436381120547</v>
+        <v>-0.001426807765885299</v>
       </c>
       <c r="D29">
-        <v>-0.01131826785488564</v>
+        <v>-0.008524293014872375</v>
       </c>
       <c r="E29">
-        <v>0.05297650431669126</v>
+        <v>-0.009194976792725266</v>
       </c>
       <c r="F29">
-        <v>0.0409999608196268</v>
+        <v>0.01868668856201804</v>
       </c>
       <c r="G29">
-        <v>-0.05884903673256853</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.04105924399800764</v>
+      </c>
+      <c r="H29">
+        <v>-0.01326542916806968</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09408557821160517</v>
+        <v>-0.05306299059470167</v>
       </c>
       <c r="C30">
-        <v>0.048970905578676</v>
+        <v>0.004256137565507029</v>
       </c>
       <c r="D30">
-        <v>-0.03321039276158998</v>
+        <v>-0.06653019992099532</v>
       </c>
       <c r="E30">
-        <v>0.07889125114193726</v>
+        <v>0.03698022577170625</v>
       </c>
       <c r="F30">
-        <v>0.07248954874261561</v>
+        <v>0.04873045074789999</v>
       </c>
       <c r="G30">
-        <v>-0.03545570764828227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.07026692445157276</v>
+      </c>
+      <c r="H30">
+        <v>0.04753675161750163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06574805469556545</v>
+        <v>-0.05503165285987163</v>
       </c>
       <c r="C31">
-        <v>0.04154133548107131</v>
+        <v>-0.0151730302526312</v>
       </c>
       <c r="D31">
-        <v>0.0001453561265374864</v>
+        <v>-0.02842568209590461</v>
       </c>
       <c r="E31">
-        <v>0.03514938893131508</v>
+        <v>0.009323027943276321</v>
       </c>
       <c r="F31">
-        <v>0.03054277298611017</v>
+        <v>0.01464715255406816</v>
       </c>
       <c r="G31">
-        <v>-0.07744156302171512</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0275244264607518</v>
+      </c>
+      <c r="H31">
+        <v>-0.009818018629358684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02179809853020808</v>
+        <v>-0.01061818740945322</v>
       </c>
       <c r="C32">
-        <v>0.01206060347194134</v>
+        <v>-0.01359883260828736</v>
       </c>
       <c r="D32">
-        <v>-0.01110401047828941</v>
+        <v>-0.003530057194870172</v>
       </c>
       <c r="E32">
-        <v>0.08529503234536563</v>
+        <v>-0.01891807547282008</v>
       </c>
       <c r="F32">
-        <v>0.05481850957330502</v>
+        <v>0.04189794670452639</v>
       </c>
       <c r="G32">
-        <v>-0.04021784062999444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05217649831485714</v>
+      </c>
+      <c r="H32">
+        <v>0.04888923429142567</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05529771234743175</v>
+        <v>-0.03930021849020762</v>
       </c>
       <c r="C33">
-        <v>0.03473533820263822</v>
+        <v>-0.001336813945392718</v>
       </c>
       <c r="D33">
-        <v>0.02097562175512347</v>
+        <v>-0.02927328640325096</v>
       </c>
       <c r="E33">
-        <v>0.06435980285255097</v>
+        <v>0.02555156166576744</v>
       </c>
       <c r="F33">
-        <v>0.07959678203810114</v>
+        <v>0.001140400192088153</v>
       </c>
       <c r="G33">
-        <v>-0.05004071696810236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06170216424915283</v>
+      </c>
+      <c r="H33">
+        <v>0.02301223548247005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03511195208183041</v>
+        <v>-0.02669267936090949</v>
       </c>
       <c r="C34">
-        <v>0.01614938652457097</v>
+        <v>-0.01712187685629666</v>
       </c>
       <c r="D34">
-        <v>-0.01117238787590681</v>
+        <v>-0.03457381165683833</v>
       </c>
       <c r="E34">
-        <v>0.04583533462163757</v>
+        <v>-0.005477415145187855</v>
       </c>
       <c r="F34">
-        <v>0.04365412552777687</v>
+        <v>0.0170667058468778</v>
       </c>
       <c r="G34">
-        <v>-0.01409074954698632</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02791947475813944</v>
+      </c>
+      <c r="H34">
+        <v>0.02712323536333645</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01403141038614304</v>
+        <v>-0.02149252760000876</v>
       </c>
       <c r="C36">
-        <v>0.002578570603491287</v>
+        <v>0.003460502441083757</v>
       </c>
       <c r="D36">
-        <v>-0.00506794017400864</v>
+        <v>0.001112888349670923</v>
       </c>
       <c r="E36">
-        <v>0.02933447229220927</v>
+        <v>-0.002444914149193197</v>
       </c>
       <c r="F36">
-        <v>0.02403701866754654</v>
+        <v>0.006120555172787492</v>
       </c>
       <c r="G36">
-        <v>-0.02994190717395406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02273670329087911</v>
+      </c>
+      <c r="H36">
+        <v>-0.001023379121802884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00203395199053589</v>
+        <v>-0.02164432392469375</v>
       </c>
       <c r="C38">
-        <v>-0.01196034569199106</v>
+        <v>-0.01635119658534549</v>
       </c>
       <c r="D38">
-        <v>0.01069832291032833</v>
+        <v>-0.001545133146164531</v>
       </c>
       <c r="E38">
-        <v>-9.402055786576427e-05</v>
+        <v>-0.004510575546325112</v>
       </c>
       <c r="F38">
-        <v>0.02220067977604876</v>
+        <v>0.008279316141617914</v>
       </c>
       <c r="G38">
-        <v>0.01048037342556459</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02857242379733333</v>
+      </c>
+      <c r="H38">
+        <v>0.02592295071312288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04190009958656142</v>
+        <v>-0.01968405281702475</v>
       </c>
       <c r="C39">
-        <v>0.03286490418062178</v>
+        <v>-0.0008829871938766796</v>
       </c>
       <c r="D39">
-        <v>-0.01166803175503858</v>
+        <v>-0.07448841206937037</v>
       </c>
       <c r="E39">
-        <v>0.04971692064045969</v>
+        <v>0.005405543274958692</v>
       </c>
       <c r="F39">
-        <v>0.05005632433651686</v>
+        <v>0.02199289531087187</v>
       </c>
       <c r="G39">
-        <v>-0.01472757057568076</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05381345928920921</v>
+      </c>
+      <c r="H39">
+        <v>0.05723778562325983</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.0346144855503903</v>
+        <v>-0.0334551743919131</v>
       </c>
       <c r="C40">
-        <v>0.06540589951435821</v>
+        <v>-0.001624390061226876</v>
       </c>
       <c r="D40">
-        <v>-0.01570838211253756</v>
+        <v>-0.01902131954108853</v>
       </c>
       <c r="E40">
-        <v>0.03724583606821212</v>
+        <v>0.02452040736879703</v>
       </c>
       <c r="F40">
-        <v>0.08506125240336317</v>
+        <v>0.02506179335657098</v>
       </c>
       <c r="G40">
-        <v>-0.05070984910540477</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.04614171099298341</v>
+      </c>
+      <c r="H40">
+        <v>0.05524239327272468</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0006653794905531396</v>
+        <v>-0.01239076479827663</v>
       </c>
       <c r="C41">
-        <v>0.001323397063214559</v>
+        <v>-0.0003941916819113901</v>
       </c>
       <c r="D41">
-        <v>0.004127045854585055</v>
+        <v>0.01244296900528209</v>
       </c>
       <c r="E41">
-        <v>0.01394923814329668</v>
+        <v>0.001085864700747544</v>
       </c>
       <c r="F41">
-        <v>0.001853080406540595</v>
+        <v>0.001101253045719787</v>
       </c>
       <c r="G41">
-        <v>-0.05275399542065909</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.007999937274523299</v>
+      </c>
+      <c r="H41">
+        <v>-0.01400806500966122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3866500157614308</v>
+        <v>-0.1962776362332203</v>
       </c>
       <c r="C42">
-        <v>-0.1108158598825621</v>
+        <v>0.07431460010907885</v>
       </c>
       <c r="D42">
-        <v>0.8590467469210575</v>
+        <v>-0.3769957482078492</v>
       </c>
       <c r="E42">
-        <v>-0.1738299584161003</v>
+        <v>0.1527533619153952</v>
       </c>
       <c r="F42">
-        <v>-0.1798939791816881</v>
+        <v>-0.8603779357085526</v>
       </c>
       <c r="G42">
-        <v>-0.04531216350154089</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1738430030551874</v>
+      </c>
+      <c r="H42">
+        <v>-0.02506505786962149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005928069228235619</v>
+        <v>-0.01135454765396617</v>
       </c>
       <c r="C43">
-        <v>0.005094750358969327</v>
+        <v>0.001737486672715027</v>
       </c>
       <c r="D43">
-        <v>0.01567498641952069</v>
+        <v>0.01573709685157043</v>
       </c>
       <c r="E43">
-        <v>0.01898201944701844</v>
+        <v>0.00756311193579483</v>
       </c>
       <c r="F43">
-        <v>0.01914999718470153</v>
+        <v>-0.01014503927723957</v>
       </c>
       <c r="G43">
-        <v>-0.04986919103077488</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01622665987503234</v>
+      </c>
+      <c r="H43">
+        <v>-0.008121695437985263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02136491221492723</v>
+        <v>-0.01432867028512978</v>
       </c>
       <c r="C44">
-        <v>0.019288467682788</v>
+        <v>-0.0003732978792467214</v>
       </c>
       <c r="D44">
-        <v>0.02581513733497564</v>
+        <v>-0.02409532104330297</v>
       </c>
       <c r="E44">
-        <v>0.08139233579879425</v>
+        <v>-7.005538364637302e-05</v>
       </c>
       <c r="F44">
-        <v>0.1519386969644865</v>
+        <v>-0.008378342247408655</v>
       </c>
       <c r="G44">
-        <v>-0.1769157244238969</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08488910230764514</v>
+      </c>
+      <c r="H44">
+        <v>0.02645820098253948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02096618226408222</v>
+        <v>-0.01904775324678739</v>
       </c>
       <c r="C46">
-        <v>0.01420733665771688</v>
+        <v>0.003406141060537265</v>
       </c>
       <c r="D46">
-        <v>0.008920136586750123</v>
+        <v>-0.01493243364651548</v>
       </c>
       <c r="E46">
-        <v>0.06292356918552106</v>
+        <v>0.001745994000927867</v>
       </c>
       <c r="F46">
-        <v>0.05098536412644088</v>
+        <v>0.0172457524326537</v>
       </c>
       <c r="G46">
-        <v>-0.06213044357541583</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05630600248262397</v>
+      </c>
+      <c r="H46">
+        <v>-0.009232969714873631</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.1019419453933693</v>
+        <v>-0.07538307684620507</v>
       </c>
       <c r="C47">
-        <v>0.03396941561267602</v>
+        <v>-0.03050111724661927</v>
       </c>
       <c r="D47">
-        <v>-0.01982615724469696</v>
+        <v>-0.04174385969714718</v>
       </c>
       <c r="E47">
-        <v>0.03626587229325464</v>
+        <v>0.005501264410654734</v>
       </c>
       <c r="F47">
-        <v>-0.004080907800265486</v>
+        <v>0.02391154341669081</v>
       </c>
       <c r="G47">
-        <v>-0.08071343243339178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.005515451187068986</v>
+      </c>
+      <c r="H47">
+        <v>-0.02956260534091052</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01772489151182317</v>
+        <v>-0.02279303835219535</v>
       </c>
       <c r="C48">
-        <v>0.012531003838337</v>
+        <v>-0.007033726132869048</v>
       </c>
       <c r="D48">
-        <v>0.003556070316528855</v>
+        <v>-0.0040897940599781</v>
       </c>
       <c r="E48">
-        <v>0.03488148381492289</v>
+        <v>0.002368794364004567</v>
       </c>
       <c r="F48">
-        <v>0.04057696445403926</v>
+        <v>0.009109366544758416</v>
       </c>
       <c r="G48">
-        <v>-0.01678117690026864</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02965775492822216</v>
+      </c>
+      <c r="H48">
+        <v>0.005175284734493965</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09496085953629611</v>
+        <v>-0.0728459155752125</v>
       </c>
       <c r="C50">
-        <v>0.03746830189262029</v>
+        <v>-0.02742379515020436</v>
       </c>
       <c r="D50">
-        <v>-0.007827195018758852</v>
+        <v>-0.04566769129211238</v>
       </c>
       <c r="E50">
-        <v>0.05413333005600203</v>
+        <v>-0.00865180803143277</v>
       </c>
       <c r="F50">
-        <v>0.02636275467888416</v>
+        <v>0.02108425099752265</v>
       </c>
       <c r="G50">
-        <v>-0.0372301283164584</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02415209650442043</v>
+      </c>
+      <c r="H50">
+        <v>-0.01945176020679783</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02051850303099311</v>
+        <v>-0.01909410299795065</v>
       </c>
       <c r="C51">
-        <v>0.0190318016025014</v>
+        <v>0.001172664107467869</v>
       </c>
       <c r="D51">
-        <v>0.01514637843621677</v>
+        <v>0.007497334893881399</v>
       </c>
       <c r="E51">
-        <v>0.02269683916166688</v>
+        <v>0.006584757188316835</v>
       </c>
       <c r="F51">
-        <v>0.1330181365297006</v>
+        <v>-0.0121464364398872</v>
       </c>
       <c r="G51">
-        <v>-0.06423704985523751</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07013217276280444</v>
+      </c>
+      <c r="H51">
+        <v>0.03220139508204502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.104447508430081</v>
+        <v>-0.0909503390425349</v>
       </c>
       <c r="C53">
-        <v>0.03717133834995444</v>
+        <v>-0.03664216495642191</v>
       </c>
       <c r="D53">
-        <v>-0.02665906718488517</v>
+        <v>-0.07822557726137788</v>
       </c>
       <c r="E53">
-        <v>0.04442495423453541</v>
+        <v>0.002800007901218415</v>
       </c>
       <c r="F53">
-        <v>-0.06732496098488863</v>
+        <v>0.05168350578441679</v>
       </c>
       <c r="G53">
-        <v>-0.02514779647921141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05105118848467093</v>
+      </c>
+      <c r="H53">
+        <v>-0.04040428081606356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01402251802671899</v>
+        <v>-0.02313080813124872</v>
       </c>
       <c r="C54">
-        <v>0.004196767949554662</v>
+        <v>-0.01091975763729992</v>
       </c>
       <c r="D54">
-        <v>-0.01171952232098428</v>
+        <v>0.0154650243355716</v>
       </c>
       <c r="E54">
-        <v>0.04036402079073535</v>
+        <v>-0.005604627165324637</v>
       </c>
       <c r="F54">
-        <v>0.05040375832800528</v>
+        <v>0.008079854102924935</v>
       </c>
       <c r="G54">
-        <v>-0.08198623594559699</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03873052309955192</v>
+      </c>
+      <c r="H54">
+        <v>-0.01138105454342253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1010868205244147</v>
+        <v>-0.07630027999743462</v>
       </c>
       <c r="C55">
-        <v>0.006237952141053747</v>
+        <v>-0.03172983593325181</v>
       </c>
       <c r="D55">
-        <v>-0.02617469762007531</v>
+        <v>-0.07548285549544137</v>
       </c>
       <c r="E55">
-        <v>0.05030939052414907</v>
+        <v>-0.008288878431155663</v>
       </c>
       <c r="F55">
-        <v>-0.05643465447883279</v>
+        <v>0.04036752442711249</v>
       </c>
       <c r="G55">
-        <v>-0.05080512955850978</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0281064853603178</v>
+      </c>
+      <c r="H55">
+        <v>-0.04627661733130648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1474302416209202</v>
+        <v>-0.1266884823132487</v>
       </c>
       <c r="C56">
-        <v>0.04094284110938375</v>
+        <v>-0.05713396110874615</v>
       </c>
       <c r="D56">
-        <v>-0.08755365311660492</v>
+        <v>-0.09905479657448067</v>
       </c>
       <c r="E56">
-        <v>0.04696331690677005</v>
+        <v>-0.0003356904007681271</v>
       </c>
       <c r="F56">
-        <v>-0.1421916219090005</v>
+        <v>0.08288218064323503</v>
       </c>
       <c r="G56">
-        <v>0.0315960147864971</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.08705680122200553</v>
+      </c>
+      <c r="H56">
+        <v>-0.03699371503303911</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0434937508484123</v>
+        <v>-0.03894970872023587</v>
       </c>
       <c r="C57">
-        <v>0.03083558211720221</v>
+        <v>0.01006006779221265</v>
       </c>
       <c r="D57">
-        <v>0.006914125939278906</v>
+        <v>-0.0256490916057603</v>
       </c>
       <c r="E57">
-        <v>0.005800351820619631</v>
+        <v>0.01165550844731906</v>
       </c>
       <c r="F57">
-        <v>0.06154069997561522</v>
+        <v>0.0136231592441507</v>
       </c>
       <c r="G57">
-        <v>-0.04753715726096108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.05833664165300577</v>
+      </c>
+      <c r="H57">
+        <v>0.02102194052140532</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2104739889120492</v>
+        <v>-0.1438587181005696</v>
       </c>
       <c r="C58">
-        <v>0.1054046385967926</v>
+        <v>-0.04283875551808656</v>
       </c>
       <c r="D58">
-        <v>0.03018104309373955</v>
+        <v>-0.1391123580117707</v>
       </c>
       <c r="E58">
-        <v>0.224328637858234</v>
+        <v>0.1257381715531385</v>
       </c>
       <c r="F58">
-        <v>0.2290860116340429</v>
+        <v>-0.02786498394471382</v>
       </c>
       <c r="G58">
-        <v>-0.001119478406818823</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.7297545285422377</v>
+      </c>
+      <c r="H58">
+        <v>-0.4835486654899547</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05208297149377002</v>
+        <v>-0.1555805860943971</v>
       </c>
       <c r="C59">
-        <v>-0.01037188268301507</v>
+        <v>-0.04079877482908016</v>
       </c>
       <c r="D59">
-        <v>-0.06453068235128682</v>
+        <v>0.2213222591833298</v>
       </c>
       <c r="E59">
-        <v>-0.1323192391077361</v>
+        <v>0.0248860402271837</v>
       </c>
       <c r="F59">
-        <v>0.09728144231934042</v>
+        <v>-0.03446692951691321</v>
       </c>
       <c r="G59">
-        <v>0.02580574880480183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01268646663097056</v>
+      </c>
+      <c r="H59">
+        <v>0.01856354957795662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1679265536312813</v>
+        <v>-0.173870308525371</v>
       </c>
       <c r="C60">
-        <v>0.06532174125908451</v>
+        <v>-0.03841715356406907</v>
       </c>
       <c r="D60">
-        <v>0.005787135017851807</v>
+        <v>-0.02239885488994568</v>
       </c>
       <c r="E60">
-        <v>0.01270135269099086</v>
+        <v>0.05384457397818223</v>
       </c>
       <c r="F60">
-        <v>0.1769852317644935</v>
+        <v>0.03299823676204079</v>
       </c>
       <c r="G60">
-        <v>0.3220963725707908</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1009464766807788</v>
+      </c>
+      <c r="H60">
+        <v>0.3901271341833182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02239038547759754</v>
+        <v>-0.02119795440821236</v>
       </c>
       <c r="C61">
-        <v>0.008590047395608405</v>
+        <v>-0.006183345134402825</v>
       </c>
       <c r="D61">
-        <v>0.001179320654868599</v>
+        <v>-0.04331584470285157</v>
       </c>
       <c r="E61">
-        <v>0.02741493427022064</v>
+        <v>-0.00104592757714869</v>
       </c>
       <c r="F61">
-        <v>0.02603791740202631</v>
+        <v>0.01804124771203946</v>
       </c>
       <c r="G61">
-        <v>-0.005206778030843835</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03189528687243352</v>
+      </c>
+      <c r="H61">
+        <v>0.03991945150419403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01597109166347999</v>
+        <v>-0.01275907791923381</v>
       </c>
       <c r="C63">
-        <v>0.009151000726310556</v>
+        <v>0.002141114503718869</v>
       </c>
       <c r="D63">
-        <v>-0.00112870208626782</v>
+        <v>-0.01217627459494644</v>
       </c>
       <c r="E63">
-        <v>0.04227146462201064</v>
+        <v>-0.001644342530533197</v>
       </c>
       <c r="F63">
-        <v>-0.001270233530287815</v>
+        <v>0.01522126884169481</v>
       </c>
       <c r="G63">
-        <v>-0.04031417208424246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01727995429849325</v>
+      </c>
+      <c r="H63">
+        <v>-0.01112803306175083</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03685388524482329</v>
+        <v>-0.04130242619792026</v>
       </c>
       <c r="C64">
-        <v>-0.01550672335695655</v>
+        <v>-0.01038533334602431</v>
       </c>
       <c r="D64">
-        <v>-0.01391930324467054</v>
+        <v>-0.03990819897840039</v>
       </c>
       <c r="E64">
-        <v>0.04597300901746458</v>
+        <v>-0.008778907706618617</v>
       </c>
       <c r="F64">
-        <v>0.01658404652067088</v>
+        <v>0.008694102113636862</v>
       </c>
       <c r="G64">
-        <v>-0.05889057041407603</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01967243048686999</v>
+      </c>
+      <c r="H64">
+        <v>0.02798796864079342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01533555932337195</v>
+        <v>-0.02904913183388682</v>
       </c>
       <c r="C65">
-        <v>0.009869358038128618</v>
+        <v>0.00457881383860072</v>
       </c>
       <c r="D65">
-        <v>0.009189230103578765</v>
+        <v>-0.06075012617104017</v>
       </c>
       <c r="E65">
-        <v>0.01930012985158684</v>
+        <v>-0.006412920678451204</v>
       </c>
       <c r="F65">
-        <v>0.01060070776945467</v>
+        <v>0.03484018716748619</v>
       </c>
       <c r="G65">
-        <v>0.008384431120008397</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.006408398266208989</v>
+      </c>
+      <c r="H65">
+        <v>0.05971510934793177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04504993666951079</v>
+        <v>-0.0261864373433916</v>
       </c>
       <c r="C66">
-        <v>0.0382861339823389</v>
+        <v>-0.005490113813195962</v>
       </c>
       <c r="D66">
-        <v>-0.00967934361057274</v>
+        <v>-0.08733630437336043</v>
       </c>
       <c r="E66">
-        <v>0.04608528177624627</v>
+        <v>0.01106365278965836</v>
       </c>
       <c r="F66">
-        <v>0.04854038731943033</v>
+        <v>0.03780695606193569</v>
       </c>
       <c r="G66">
-        <v>-0.002730646130286462</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04496245233332204</v>
+      </c>
+      <c r="H66">
+        <v>0.06261772637081942</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01654081565739228</v>
+        <v>-0.0434292702642379</v>
       </c>
       <c r="C67">
-        <v>-0.01011217010724832</v>
+        <v>-0.02025479835391291</v>
       </c>
       <c r="D67">
-        <v>0.00562090164509719</v>
+        <v>0.002830676368647567</v>
       </c>
       <c r="E67">
-        <v>-0.02076862165568959</v>
+        <v>-0.002187728260607804</v>
       </c>
       <c r="F67">
-        <v>0.02891368989076993</v>
+        <v>0.01245440033060413</v>
       </c>
       <c r="G67">
-        <v>0.01791669061293013</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01516271149720213</v>
+      </c>
+      <c r="H67">
+        <v>0.03571342536427857</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06561865745924438</v>
+        <v>-0.1595122084931938</v>
       </c>
       <c r="C68">
-        <v>-0.03801164797467722</v>
+        <v>-0.02153128551644418</v>
       </c>
       <c r="D68">
-        <v>-0.07616673994159409</v>
+        <v>0.2182807990630607</v>
       </c>
       <c r="E68">
-        <v>-0.1765783482460035</v>
+        <v>0.02017103844962017</v>
       </c>
       <c r="F68">
-        <v>0.08533440067257551</v>
+        <v>-0.05568195376195824</v>
       </c>
       <c r="G68">
-        <v>0.04211114480471728</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01501845095552366</v>
+      </c>
+      <c r="H68">
+        <v>-0.0380929182060239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0747532746295398</v>
+        <v>-0.05850107977641362</v>
       </c>
       <c r="C69">
-        <v>0.03015736888480774</v>
+        <v>-0.02869369285826278</v>
       </c>
       <c r="D69">
-        <v>-0.02333330255205057</v>
+        <v>-0.03932950053916817</v>
       </c>
       <c r="E69">
-        <v>0.01624686081265916</v>
+        <v>0.00520890723901861</v>
       </c>
       <c r="F69">
-        <v>0.0005048656143012207</v>
+        <v>0.02845061396858855</v>
       </c>
       <c r="G69">
-        <v>-0.0681964515362654</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.003219203801298867</v>
+      </c>
+      <c r="H69">
+        <v>-0.009320484298003551</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07978119293064879</v>
+        <v>-0.1503734809220229</v>
       </c>
       <c r="C71">
-        <v>-0.02443813512694141</v>
+        <v>-0.028914771493194</v>
       </c>
       <c r="D71">
-        <v>-0.06683517766935641</v>
+        <v>0.2008912927903275</v>
       </c>
       <c r="E71">
-        <v>-0.2072074130080818</v>
+        <v>0.02086748169701779</v>
       </c>
       <c r="F71">
-        <v>0.09359895097295365</v>
+        <v>-0.06429019584494253</v>
       </c>
       <c r="G71">
-        <v>0.004226440415255659</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.009298446735743348</v>
+      </c>
+      <c r="H71">
+        <v>-0.02310295903780753</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1109967244196099</v>
+        <v>-0.08439228808319081</v>
       </c>
       <c r="C72">
-        <v>0.04888769841170897</v>
+        <v>-0.04075319985623094</v>
       </c>
       <c r="D72">
-        <v>-0.07613059706020105</v>
+        <v>-0.08442568505420621</v>
       </c>
       <c r="E72">
-        <v>0.06794808965017296</v>
+        <v>0.00907091009672485</v>
       </c>
       <c r="F72">
-        <v>0.1105898187908832</v>
+        <v>0.0808965963802567</v>
       </c>
       <c r="G72">
-        <v>0.1063899164316997</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09219921359511403</v>
+      </c>
+      <c r="H72">
+        <v>0.1661508751834492</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2512824734363775</v>
+        <v>-0.2417059742304728</v>
       </c>
       <c r="C73">
-        <v>0.07978398427421997</v>
+        <v>-0.05069079519504813</v>
       </c>
       <c r="D73">
-        <v>-0.00641923391640345</v>
+        <v>-0.06808441834666702</v>
       </c>
       <c r="E73">
-        <v>-0.0567026610010991</v>
+        <v>0.08084428740760455</v>
       </c>
       <c r="F73">
-        <v>0.3080367285882781</v>
+        <v>0.02854039019948858</v>
       </c>
       <c r="G73">
-        <v>0.4759175698404269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1338708360697987</v>
+      </c>
+      <c r="H73">
+        <v>0.517540613618838</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1315633145060086</v>
+        <v>-0.1160574915431702</v>
       </c>
       <c r="C74">
-        <v>0.02302021607141283</v>
+        <v>-0.05230842255382393</v>
       </c>
       <c r="D74">
-        <v>-0.04087932609138617</v>
+        <v>-0.09843639367879452</v>
       </c>
       <c r="E74">
-        <v>0.01379151104657762</v>
+        <v>0.005182793475603415</v>
       </c>
       <c r="F74">
-        <v>-0.08985086860937974</v>
+        <v>0.0653689130251892</v>
       </c>
       <c r="G74">
-        <v>0.03415964861321233</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.06810441695561116</v>
+      </c>
+      <c r="H74">
+        <v>-0.01657824711040592</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2223825460657025</v>
+        <v>-0.225842160001927</v>
       </c>
       <c r="C75">
-        <v>0.08594981868862231</v>
+        <v>-0.1032548722575908</v>
       </c>
       <c r="D75">
-        <v>-0.1258367630955665</v>
+        <v>-0.1599547266220843</v>
       </c>
       <c r="E75">
-        <v>0.07463379429669721</v>
+        <v>0.02490941639579882</v>
       </c>
       <c r="F75">
-        <v>-0.1535436372228648</v>
+        <v>0.1496235479311888</v>
       </c>
       <c r="G75">
-        <v>-0.03620052681204089</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1360128463672821</v>
+      </c>
+      <c r="H75">
+        <v>-0.09798102141193744</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.271367214127829</v>
+        <v>-0.1997750013602926</v>
       </c>
       <c r="C76">
-        <v>0.03877726345211578</v>
+        <v>-0.09641428074686928</v>
       </c>
       <c r="D76">
-        <v>-0.1635470341480275</v>
+        <v>-0.1540502397829017</v>
       </c>
       <c r="E76">
-        <v>0.04571535713696077</v>
+        <v>-0.01852514663883332</v>
       </c>
       <c r="F76">
-        <v>-0.1856014809901606</v>
+        <v>0.1507923343775634</v>
       </c>
       <c r="G76">
-        <v>-0.04430556243124988</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1474127526084802</v>
+      </c>
+      <c r="H76">
+        <v>-0.1090210221387923</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.148320619421616</v>
+        <v>-0.07162202663636767</v>
       </c>
       <c r="C77">
-        <v>0.03579903423191683</v>
+        <v>-0.009992073253252397</v>
       </c>
       <c r="D77">
-        <v>0.06842145713065315</v>
+        <v>-0.07591776400890697</v>
       </c>
       <c r="E77">
-        <v>0.110764360328061</v>
+        <v>0.01606988774510315</v>
       </c>
       <c r="F77">
-        <v>0.1833821147480173</v>
+        <v>-0.02923858325992491</v>
       </c>
       <c r="G77">
-        <v>-0.1867313844250253</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1264469704657097</v>
+      </c>
+      <c r="H77">
+        <v>-0.05621165481113591</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05867531067520868</v>
+        <v>-0.03641429728768702</v>
       </c>
       <c r="C78">
-        <v>0.02835538441251546</v>
+        <v>-0.01036771215863594</v>
       </c>
       <c r="D78">
-        <v>0.003176598832845784</v>
+        <v>-0.06409099779485269</v>
       </c>
       <c r="E78">
-        <v>0.1000138473612027</v>
+        <v>0.002593582003807082</v>
       </c>
       <c r="F78">
-        <v>0.03936576215107803</v>
+        <v>0.03045671011016035</v>
       </c>
       <c r="G78">
-        <v>-0.04957028666485584</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.055887875443459</v>
+      </c>
+      <c r="H78">
+        <v>0.03710732791195688</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1679130924378699</v>
+        <v>-0.1541539650227956</v>
       </c>
       <c r="C80">
-        <v>-0.9332955872049591</v>
+        <v>-0.04729368484551017</v>
       </c>
       <c r="D80">
-        <v>-0.1268157806106167</v>
+        <v>-0.04836429701137653</v>
       </c>
       <c r="E80">
-        <v>0.2498625200286859</v>
+        <v>-0.961457716668417</v>
       </c>
       <c r="F80">
-        <v>0.0371918497649929</v>
+        <v>-0.1442447834932284</v>
       </c>
       <c r="G80">
-        <v>0.04898168810295966</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.09169574956171699</v>
+      </c>
+      <c r="H80">
+        <v>0.01077793778788719</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1586678020036389</v>
+        <v>-0.1474013654302964</v>
       </c>
       <c r="C81">
-        <v>0.03884960207290627</v>
+        <v>-0.06658405141175998</v>
       </c>
       <c r="D81">
-        <v>-0.1071238670821246</v>
+        <v>-0.09913732219580591</v>
       </c>
       <c r="E81">
-        <v>0.03680944249291948</v>
+        <v>-0.003044571198049595</v>
       </c>
       <c r="F81">
-        <v>-0.1499084045413216</v>
+        <v>0.0942113095075264</v>
       </c>
       <c r="G81">
-        <v>0.01615578320530406</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.09243393517750888</v>
+      </c>
+      <c r="H81">
+        <v>-0.07247567314743573</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05417223285265603</v>
+        <v>-0.03423533550234506</v>
       </c>
       <c r="C83">
-        <v>0.036664177047652</v>
+        <v>-0.006303705105080274</v>
       </c>
       <c r="D83">
-        <v>0.0293494372398366</v>
+        <v>-0.02389652211898116</v>
       </c>
       <c r="E83">
-        <v>0.02722466603761465</v>
+        <v>0.015544093054697</v>
       </c>
       <c r="F83">
-        <v>0.05224548396274042</v>
+        <v>0.003625771046135437</v>
       </c>
       <c r="G83">
-        <v>-0.05028915019470747</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05924445202228132</v>
+      </c>
+      <c r="H83">
+        <v>0.02325338730788966</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2416796750004151</v>
+        <v>-0.2124916400146816</v>
       </c>
       <c r="C85">
-        <v>0.05763218967355134</v>
+        <v>-0.08546546014158483</v>
       </c>
       <c r="D85">
-        <v>-0.1314058658384118</v>
+        <v>-0.1595337340977665</v>
       </c>
       <c r="E85">
-        <v>0.05209433642914042</v>
+        <v>0.01476631180085906</v>
       </c>
       <c r="F85">
-        <v>-0.1741332183847211</v>
+        <v>0.1303513736983468</v>
       </c>
       <c r="G85">
-        <v>-0.06454678155642744</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1504863884913674</v>
+      </c>
+      <c r="H85">
+        <v>-0.06978081564019667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.001969209128014976</v>
+        <v>-0.01901702380375678</v>
       </c>
       <c r="C86">
-        <v>-0.001717173272691448</v>
+        <v>0.0001235994141358399</v>
       </c>
       <c r="D86">
-        <v>0.01935817272015873</v>
+        <v>-0.002694360704568881</v>
       </c>
       <c r="E86">
-        <v>0.05120516541730005</v>
+        <v>0.01058311174131873</v>
       </c>
       <c r="F86">
-        <v>0.06792569075130303</v>
+        <v>-0.01004288978797273</v>
       </c>
       <c r="G86">
-        <v>-0.03187335970644704</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08179061876349407</v>
+      </c>
+      <c r="H86">
+        <v>0.04819401698798705</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.0371460224651862</v>
+        <v>-0.02863499520349937</v>
       </c>
       <c r="C87">
-        <v>0.01107857835415542</v>
+        <v>-0.003161864009840659</v>
       </c>
       <c r="D87">
-        <v>0.001913850833575401</v>
+        <v>-0.03118775637449046</v>
       </c>
       <c r="E87">
-        <v>0.03054579076054665</v>
+        <v>0.003690119713155071</v>
       </c>
       <c r="F87">
-        <v>0.08919222915726009</v>
+        <v>0.01048191416327348</v>
       </c>
       <c r="G87">
-        <v>-0.01784807138093182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09110905277169827</v>
+      </c>
+      <c r="H87">
+        <v>0.04158761037137381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0133368340393676</v>
+        <v>-0.03843891859221715</v>
       </c>
       <c r="C88">
-        <v>-0.009176909597008244</v>
+        <v>0.01025991809078686</v>
       </c>
       <c r="D88">
-        <v>-0.01638175256286777</v>
+        <v>-0.001311569703647593</v>
       </c>
       <c r="E88">
-        <v>0.002525551853363776</v>
+        <v>-0.008771241780364989</v>
       </c>
       <c r="F88">
-        <v>0.03056325419878417</v>
+        <v>0.01164751694013829</v>
       </c>
       <c r="G88">
-        <v>-0.07025853262123172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.006164265410873072</v>
+      </c>
+      <c r="H88">
+        <v>0.01330337250080707</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09406987618376214</v>
+        <v>-0.2418128890161255</v>
       </c>
       <c r="C89">
-        <v>-0.01652728348739333</v>
+        <v>-0.04153286150288116</v>
       </c>
       <c r="D89">
-        <v>-0.08150429709849033</v>
+        <v>0.3422990703048835</v>
       </c>
       <c r="E89">
-        <v>-0.2617511928063019</v>
+        <v>0.05025265940686583</v>
       </c>
       <c r="F89">
-        <v>0.1538350130647828</v>
+        <v>-0.07235401954053203</v>
       </c>
       <c r="G89">
-        <v>-0.05977870255207914</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>9.302518715643648e-06</v>
+      </c>
+      <c r="H89">
+        <v>-0.03698116726349399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09086100788561362</v>
+        <v>-0.1983520492668791</v>
       </c>
       <c r="C90">
-        <v>-0.07057540729928209</v>
+        <v>-0.03544687336911562</v>
       </c>
       <c r="D90">
-        <v>-0.100325547429169</v>
+        <v>0.3040301262451353</v>
       </c>
       <c r="E90">
-        <v>-0.2970828551977792</v>
+        <v>0.02798885713775215</v>
       </c>
       <c r="F90">
-        <v>0.1253953995643828</v>
+        <v>-0.08377151307125888</v>
       </c>
       <c r="G90">
-        <v>-0.02241900703720756</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04281465645662565</v>
+      </c>
+      <c r="H90">
+        <v>-0.05304136349839392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2932857177597452</v>
+        <v>-0.2330215382288085</v>
       </c>
       <c r="C91">
-        <v>0.06768466661866947</v>
+        <v>-0.1048567900617765</v>
       </c>
       <c r="D91">
-        <v>-0.1264972659426052</v>
+        <v>-0.1536576067970766</v>
       </c>
       <c r="E91">
-        <v>0.01494536699841475</v>
+        <v>0.01574415840261332</v>
       </c>
       <c r="F91">
-        <v>-0.2413582365531633</v>
+        <v>0.1427243007396491</v>
       </c>
       <c r="G91">
-        <v>0.002942234152839347</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1799769439850009</v>
+      </c>
+      <c r="H91">
+        <v>-0.1350256967931137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1579672881293014</v>
+        <v>-0.244627510297569</v>
       </c>
       <c r="C92">
-        <v>-0.07411544768699478</v>
+        <v>-0.09765471942317548</v>
       </c>
       <c r="D92">
-        <v>-0.1654660302635829</v>
+        <v>0.2383574669305443</v>
       </c>
       <c r="E92">
-        <v>-0.4520990012792085</v>
+        <v>0.01418921882596484</v>
       </c>
       <c r="F92">
-        <v>0.02430169937014415</v>
+        <v>-0.04513791157735441</v>
       </c>
       <c r="G92">
-        <v>-0.4763264279549865</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0273740799713304</v>
+      </c>
+      <c r="H92">
+        <v>-0.1538554460846346</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.08790965329670708</v>
+        <v>-0.2224688648772611</v>
       </c>
       <c r="C93">
-        <v>-0.08325763583936403</v>
+        <v>-0.04740161225316768</v>
       </c>
       <c r="D93">
-        <v>-0.1096819955239379</v>
+        <v>0.330850754947465</v>
       </c>
       <c r="E93">
-        <v>-0.4163326903129329</v>
+        <v>0.04178491741438211</v>
       </c>
       <c r="F93">
-        <v>0.09059621768388887</v>
+        <v>-0.1045565398991787</v>
       </c>
       <c r="G93">
-        <v>0.04820779651754018</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05619772145271288</v>
+      </c>
+      <c r="H93">
+        <v>0.002561006688217281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2817720127038083</v>
+        <v>-0.2553122348966021</v>
       </c>
       <c r="C94">
-        <v>0.1036763708367884</v>
+        <v>-0.09511364864391601</v>
       </c>
       <c r="D94">
-        <v>-0.2071766758338006</v>
+        <v>-0.1386410650542105</v>
       </c>
       <c r="E94">
-        <v>0.03772631056917326</v>
+        <v>0.03220169774185348</v>
       </c>
       <c r="F94">
-        <v>-0.257719643487905</v>
+        <v>0.1868459986864662</v>
       </c>
       <c r="G94">
-        <v>0.06812257860667122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.181859887411044</v>
+      </c>
+      <c r="H94">
+        <v>-0.1485794694468144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07776584952814966</v>
+        <v>-0.05542564330729777</v>
       </c>
       <c r="C95">
-        <v>0.06788943468113152</v>
+        <v>-0.02955665973643828</v>
       </c>
       <c r="D95">
-        <v>0.04434325513599974</v>
+        <v>-0.09500526119004511</v>
       </c>
       <c r="E95">
-        <v>0.1039628136449441</v>
+        <v>0.08029945777589217</v>
       </c>
       <c r="F95">
-        <v>0.003273208724431017</v>
+        <v>0.002969779829581629</v>
       </c>
       <c r="G95">
-        <v>-0.1862527206014904</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06008600739704715</v>
+      </c>
+      <c r="H95">
+        <v>0.01787522293627765</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.185893878083192</v>
+        <v>-0.1827624063987768</v>
       </c>
       <c r="C98">
-        <v>0.03776024282760278</v>
+        <v>-0.07098407022317656</v>
       </c>
       <c r="D98">
-        <v>0.0009382499486911193</v>
+        <v>-0.03827977771570509</v>
       </c>
       <c r="E98">
-        <v>-0.06754720030545872</v>
+        <v>0.05297778969571467</v>
       </c>
       <c r="F98">
-        <v>0.1463103449027323</v>
+        <v>0.001550874902495254</v>
       </c>
       <c r="G98">
-        <v>0.342877320940318</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1202907723162981</v>
+      </c>
+      <c r="H98">
+        <v>0.3792924573215549</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.006079407833246599</v>
+        <v>-0.01417932395964126</v>
       </c>
       <c r="C101">
-        <v>0.01194706323130724</v>
+        <v>0.0008007147051884547</v>
       </c>
       <c r="D101">
-        <v>-0.001721297741734262</v>
+        <v>-0.00927792833159467</v>
       </c>
       <c r="E101">
-        <v>0.1173222723706625</v>
+        <v>-0.003819225088598176</v>
       </c>
       <c r="F101">
-        <v>0.1223806102031869</v>
+        <v>0.0213561392212571</v>
       </c>
       <c r="G101">
-        <v>-0.1185210935038911</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1073482965074408</v>
+      </c>
+      <c r="H101">
+        <v>-0.05698677351670944</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1017294761974992</v>
+        <v>-0.1031925200933298</v>
       </c>
       <c r="C102">
-        <v>0.02534384856207103</v>
+        <v>-0.03404083847421861</v>
       </c>
       <c r="D102">
-        <v>-0.04195006735698044</v>
+        <v>-0.07878312079143675</v>
       </c>
       <c r="E102">
-        <v>0.0518658290043026</v>
+        <v>0.0009359809654501189</v>
       </c>
       <c r="F102">
-        <v>-0.1300785193930805</v>
+        <v>0.06510282141601255</v>
       </c>
       <c r="G102">
-        <v>-0.04171727845721889</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.08533049898004795</v>
+      </c>
+      <c r="H102">
+        <v>-0.05934614916197923</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02822643884899964</v>
+        <v>-0.01975668578703116</v>
       </c>
       <c r="C103">
-        <v>0.01239228246872685</v>
+        <v>-0.00765456039851923</v>
       </c>
       <c r="D103">
-        <v>-0.01513225650741101</v>
+        <v>-0.01774923170639071</v>
       </c>
       <c r="E103">
-        <v>0.01966816982293329</v>
+        <v>-0.006930786470539722</v>
       </c>
       <c r="F103">
-        <v>-0.01989505026506328</v>
+        <v>0.01723549834381215</v>
       </c>
       <c r="G103">
-        <v>-0.03173605506534439</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.002457295467783914</v>
+      </c>
+      <c r="H103">
+        <v>-0.01002078268023676</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2771177186123586</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9442569921393905</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.005131604533985922</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02505605873166688</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1439795079506853</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.02469297758697426</v>
+      </c>
+      <c r="H104">
+        <v>-0.03099882841827899</v>
       </c>
     </row>
   </sheetData>
